--- a/data/trans_dic/POLIPATOLOGIA_5-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_5-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,83</t>
+          <t>1,51; 3,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,85</t>
+          <t>2,61; 5,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 5,9</t>
+          <t>2,73; 5,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,14; 12,64</t>
+          <t>8,31; 12,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,49; 5,35</t>
+          <t>2,56; 5,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,31; 12,18</t>
+          <t>7,42; 12,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,69; 13,55</t>
+          <t>8,89; 13,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,48; 19,15</t>
+          <t>13,21; 19,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,33; 4,18</t>
+          <t>2,3; 4,12</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,53; 8,16</t>
+          <t>5,47; 8,3</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,25; 9,34</t>
+          <t>6,31; 9,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,96; 15,37</t>
+          <t>11,91; 15,44</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 5,06</t>
+          <t>2,64; 5,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 4,99</t>
+          <t>2,55; 5,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 4,36</t>
+          <t>2,23; 4,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,53; 8,93</t>
+          <t>3,67; 8,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 7,59</t>
+          <t>4,44; 7,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,34; 10,99</t>
+          <t>7,37; 11,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,06; 10,88</t>
+          <t>7,1; 11,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,05; 17,67</t>
+          <t>14,06; 17,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,86; 5,82</t>
+          <t>3,94; 5,94</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,43; 7,67</t>
+          <t>5,34; 7,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,03; 7,26</t>
+          <t>4,95; 7,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,04; 12,53</t>
+          <t>7,01; 12,44</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,23</t>
+          <t>2,26; 5,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,54; 5,54</t>
+          <t>2,58; 5,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,81</t>
+          <t>2,13; 4,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,79; 9,67</t>
+          <t>5,65; 9,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,02; 12,71</t>
+          <t>8,15; 12,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,37; 11,47</t>
+          <t>7,27; 11,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,63; 10,96</t>
+          <t>6,5; 10,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,48; 64,43</t>
+          <t>13,42; 62,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,48; 8,34</t>
+          <t>5,64; 8,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,46; 8,06</t>
+          <t>5,42; 8,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 7,33</t>
+          <t>4,75; 7,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,32; 48,34</t>
+          <t>10,42; 48,03</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,83; 5,08</t>
+          <t>2,72; 5,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,64; 5,47</t>
+          <t>2,68; 5,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 4,95</t>
+          <t>2,38; 4,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,0; 10,1</t>
+          <t>6,87; 10,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,61; 8,85</t>
+          <t>5,78; 8,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,12; 13,06</t>
+          <t>9,25; 13,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,98; 13,12</t>
+          <t>8,92; 13,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,96; 19,39</t>
+          <t>13,63; 19,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,54; 6,59</t>
+          <t>4,59; 6,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,59; 8,99</t>
+          <t>6,62; 9,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,29; 8,73</t>
+          <t>6,24; 8,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,29; 14,42</t>
+          <t>11,58; 14,69</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,82; 4,04</t>
+          <t>2,83; 4,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,13; 4,53</t>
+          <t>3,14; 4,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,88; 4,18</t>
+          <t>2,88; 4,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,29; 9,07</t>
+          <t>6,22; 8,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,89; 7,69</t>
+          <t>5,87; 7,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,94; 11,06</t>
+          <t>8,81; 10,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,71; 10,9</t>
+          <t>8,75; 10,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,68; 34,42</t>
+          <t>15,76; 35,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,56; 5,65</t>
+          <t>4,61; 5,69</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,29; 7,56</t>
+          <t>6,25; 7,5</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,13; 7,34</t>
+          <t>6,06; 7,33</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,65; 22,19</t>
+          <t>11,61; 23,57</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con cinco o más enfermedades crónicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>17357</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>27181</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>28639</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>65554</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>25950</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>66869</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>74264</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>122230</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>43307</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>94050</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>102903</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>187784</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10492; 26731</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>18360; 39792</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>18440; 39916</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>52800; 79864</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>17624; 38124</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>51709; 84621</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>59784; 92422</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>95823; 139748</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>31835; 57001</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>76654; 116246</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>84986; 123056</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>162001; 210160</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>35408</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>37115</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>31958</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>78292</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>56861</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>93829</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>92794</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>151707</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>92269</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>130944</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>124752</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>229999</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>25371; 48933</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>25961; 51130</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>22816; 45631</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>43761; 106241</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>43044; 73333</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>76122; 113798</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>74068; 115401</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>134809; 168779</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>76078; 114686</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>109395; 153666</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>102229; 147503</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>150883; 267638</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>23671</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>29129</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>25007</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>52773</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>69826</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>72214</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>66238</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>308198</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>93497</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>101343</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>91245</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>360971</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15340; 34562</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19526; 41621</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>16201; 36473</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>39780; 66513</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>55739; 87312</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>56481; 89121</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>50998; 84146</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>125265; 581982</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>76769; 111310</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>83217; 125588</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>73444; 111891</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>170692; 786807</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>35402</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>36427</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>33880</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>78618</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>73912</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>118094</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>113895</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>186173</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>109314</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>154521</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>147775</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>264791</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>25644; 48497</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>25391; 50832</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>22306; 45652</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>63651; 95053</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>60013; 93354</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>97292; 139707</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>93132; 136237</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>149239; 210458</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>90836; 130639</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>132369; 181672</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>123545; 176733</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>234068; 297009</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1064</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1456</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>111838</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>129852</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>119484</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>275237</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>226549</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>351006</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>347191</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>768308</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>338386</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>480858</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>466675</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1043545</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>92695; 134837</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>107465; 153734</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>97702; 142580</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>215175; 309745</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>198422; 260679</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>313531; 388151</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>310099; 386289</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>585192; 1319657</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>306644; 378429</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>436314; 523549</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>420266; 508712</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>832624; 1690428</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>